--- a/Reproductive_trait_analyses/Tables/Rsquare.xlsx
+++ b/Reproductive_trait_analyses/Tables/Rsquare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrei\Documents\R_Projects\chapter_two\Reproductive_trait_analyses\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8E706C-B5E7-47C0-B22D-F873C30AAC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD65C6E-21FE-4441-B0D5-FF4101B3F8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD23502E-038A-4CF8-BE01-067A0835C774}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="51">
   <si>
     <t>$flsucc_mods.City_gr</t>
   </si>
@@ -171,6 +171,24 @@
   </si>
   <si>
     <t>[1,]</t>
+  </si>
+  <si>
+    <t>$first_pods_mods.City_gr</t>
+  </si>
+  <si>
+    <t>$first_pods_mods.Usc_gr</t>
+  </si>
+  <si>
+    <t>$first_pods_mods.City_urbsubs_alt</t>
+  </si>
+  <si>
+    <t>$first_pods_mods.City_urbsubs_best</t>
+  </si>
+  <si>
+    <t>$first_pods_mods.Usc_urbsubs_best</t>
+  </si>
+  <si>
+    <t>$first_pods_mods.Usc_urbsubs_alt</t>
   </si>
 </sst>
 </file>
@@ -522,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D2C116-25BC-48D6-9D11-7E9278DC7866}">
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,10 +780,10 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>8.5799760000000003E-2</v>
+        <v>0.1191724</v>
       </c>
       <c r="C33">
-        <v>9.6303009999999994E-2</v>
+        <v>0.16135070000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -773,10 +791,10 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.10848123</v>
+        <v>0.13720499999999999</v>
       </c>
       <c r="C34">
-        <v>0.12176104</v>
+        <v>0.1857655</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -784,10 +802,10 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>6.3205570000000003E-2</v>
+        <v>0.1004844</v>
       </c>
       <c r="C35">
-        <v>7.0942930000000001E-2</v>
+        <v>0.13604849999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,10 +826,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>9.1116900000000001E-2</v>
+        <v>0.12788040000000001</v>
       </c>
       <c r="C39">
-        <v>9.685858E-2</v>
+        <v>0.16494410000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,10 +837,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.11518846000000001</v>
+        <v>0.14708889999999999</v>
       </c>
       <c r="C40">
-        <v>0.12244699000000001</v>
+        <v>0.18971969999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,10 +848,10 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.7130380000000003E-2</v>
+        <v>0.10794819999999999</v>
       </c>
       <c r="C41">
-        <v>7.1360569999999998E-2</v>
+        <v>0.13923489999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,10 +872,10 @@
         <v>41</v>
       </c>
       <c r="B45">
-        <v>0.10762307</v>
+        <v>0.14023430000000001</v>
       </c>
       <c r="C45">
-        <v>0.10762307</v>
+        <v>0.16422529999999999</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -865,10 +883,10 @@
         <v>42</v>
       </c>
       <c r="B46">
-        <v>0.13322343</v>
+        <v>0.1592867</v>
       </c>
       <c r="C46">
-        <v>0.13322344</v>
+        <v>0.18653710000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,10 +894,10 @@
         <v>43</v>
       </c>
       <c r="B47">
-        <v>8.1838439999999998E-2</v>
+        <v>0.12049799999999999</v>
       </c>
       <c r="C47">
-        <v>8.1838439999999998E-2</v>
+        <v>0.1411124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -900,10 +918,10 @@
         <v>41</v>
       </c>
       <c r="B51">
-        <v>0.1075136</v>
+        <v>0.1395844</v>
       </c>
       <c r="C51">
-        <v>0.1075136</v>
+        <v>0.1587228</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -911,10 +929,10 @@
         <v>42</v>
       </c>
       <c r="B52">
-        <v>0.13312191000000001</v>
+        <v>0.15883639999999999</v>
       </c>
       <c r="C52">
-        <v>0.13312191000000001</v>
+        <v>0.18061450000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -922,15 +940,15 @@
         <v>43</v>
       </c>
       <c r="B53">
-        <v>8.1723779999999996E-2</v>
+        <v>0.1196753</v>
       </c>
       <c r="C53">
-        <v>8.1723790000000004E-2</v>
+        <v>0.13608400000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -946,10 +964,10 @@
         <v>41</v>
       </c>
       <c r="B57">
-        <v>0.10462247</v>
+        <v>0.15864300000000001</v>
       </c>
       <c r="C57">
-        <v>0.10462247</v>
+        <v>0.15864300000000001</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -957,10 +975,10 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>0.12968281000000001</v>
+        <v>0.1805437</v>
       </c>
       <c r="C58">
-        <v>0.12968282</v>
+        <v>0.1805437</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -968,15 +986,15 @@
         <v>43</v>
       </c>
       <c r="B59">
-        <v>7.9425380000000004E-2</v>
+        <v>0.13599530000000001</v>
       </c>
       <c r="C59">
-        <v>7.9425380000000004E-2</v>
+        <v>0.13599530000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -992,10 +1010,10 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>0.10117518</v>
+        <v>0.1452126</v>
       </c>
       <c r="C63">
-        <v>0.10117518</v>
+        <v>0.16177330000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,10 +1021,10 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>0.12561008000000001</v>
+        <v>0.16509080000000001</v>
       </c>
       <c r="C64">
-        <v>0.12561009000000001</v>
+        <v>0.18391850000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,10 +1032,10 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>7.665632E-2</v>
+        <v>0.1246361</v>
       </c>
       <c r="C65">
-        <v>7.665632E-2</v>
+        <v>0.13885030000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1856,7 +1874,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -1872,10 +1890,10 @@
         <v>41</v>
       </c>
       <c r="B183">
-        <v>9.4753279999999995E-2</v>
+        <v>0.37726569999999998</v>
       </c>
       <c r="C183">
-        <v>0.25441530000000001</v>
+        <v>0.99638689999999996</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -1883,10 +1901,10 @@
         <v>42</v>
       </c>
       <c r="B184">
-        <v>0.10852745</v>
+        <v>0.37726579999999998</v>
       </c>
       <c r="C184">
-        <v>0.29139939999999998</v>
+        <v>0.99638689999999996</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -1894,15 +1912,15 @@
         <v>43</v>
       </c>
       <c r="B185">
-        <v>7.9917009999999997E-2</v>
+        <v>0.37726569999999998</v>
       </c>
       <c r="C185">
-        <v>0.21457950000000001</v>
+        <v>0.99638680000000002</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -1918,10 +1936,10 @@
         <v>41</v>
       </c>
       <c r="B189">
-        <v>9.3451300000000001E-2</v>
+        <v>0.37680000000000002</v>
       </c>
       <c r="C189">
-        <v>0.25543729999999998</v>
+        <v>0.99640390000000001</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -1929,10 +1947,10 @@
         <v>42</v>
       </c>
       <c r="B190">
-        <v>0.10700786</v>
+        <v>0.37680000000000002</v>
       </c>
       <c r="C190">
-        <v>0.29249239999999999</v>
+        <v>0.99640390000000001</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -1940,15 +1958,15 @@
         <v>43</v>
       </c>
       <c r="B191">
-        <v>7.8843739999999995E-2</v>
+        <v>0.37680000000000002</v>
       </c>
       <c r="C191">
-        <v>0.21550939999999999</v>
+        <v>0.99640379999999995</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -1964,10 +1982,10 @@
         <v>41</v>
       </c>
       <c r="B195">
-        <v>0.1647515</v>
+        <v>0.47366469999999999</v>
       </c>
       <c r="C195">
-        <v>0.40728170000000002</v>
+        <v>0.99999300000000002</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -1975,10 +1993,10 @@
         <v>42</v>
       </c>
       <c r="B196">
-        <v>0.20793300000000001</v>
+        <v>0.47366469999999999</v>
       </c>
       <c r="C196">
-        <v>0.5140304</v>
+        <v>0.99999300000000002</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -1986,15 +2004,15 @@
         <v>43</v>
       </c>
       <c r="B197">
-        <v>0.110196</v>
+        <v>0.47366469999999999</v>
       </c>
       <c r="C197">
-        <v>0.27241510000000002</v>
+        <v>0.99999300000000002</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -2010,10 +2028,10 @@
         <v>41</v>
       </c>
       <c r="B201">
-        <v>0.16546420000000001</v>
+        <v>0.46594400000000002</v>
       </c>
       <c r="C201">
-        <v>0.40549499999999999</v>
+        <v>0.99999289999999996</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -2021,10 +2039,10 @@
         <v>42</v>
       </c>
       <c r="B202">
-        <v>0.20913090000000001</v>
+        <v>0.46594400000000002</v>
       </c>
       <c r="C202">
-        <v>0.51250669999999998</v>
+        <v>0.99999289999999996</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -2032,15 +2050,15 @@
         <v>43</v>
       </c>
       <c r="B203">
-        <v>0.1103814</v>
+        <v>0.46594400000000002</v>
       </c>
       <c r="C203">
-        <v>0.27050610000000003</v>
+        <v>0.99999289999999996</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -2056,10 +2074,10 @@
         <v>41</v>
       </c>
       <c r="B207">
-        <v>0.17390359999999999</v>
+        <v>0.4624337</v>
       </c>
       <c r="C207">
-        <v>0.23627000000000001</v>
+        <v>0.99999300000000002</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -2067,10 +2085,10 @@
         <v>42</v>
       </c>
       <c r="B208">
-        <v>0.20056470000000001</v>
+        <v>0.4624337</v>
       </c>
       <c r="C208">
-        <v>0.27249250000000003</v>
+        <v>0.99999300000000002</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -2078,9 +2096,285 @@
         <v>43</v>
       </c>
       <c r="B209">
+        <v>0.4624337</v>
+      </c>
+      <c r="C209">
+        <v>0.99999300000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>38</v>
+      </c>
+      <c r="C212" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>41</v>
+      </c>
+      <c r="B213">
+        <v>0.43866379999999999</v>
+      </c>
+      <c r="C213">
+        <v>0.99999300000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>42</v>
+      </c>
+      <c r="B214">
+        <v>0.43866379999999999</v>
+      </c>
+      <c r="C214">
+        <v>0.99999300000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>43</v>
+      </c>
+      <c r="B215">
+        <v>0.43866379999999999</v>
+      </c>
+      <c r="C215">
+        <v>0.99999300000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>41</v>
+      </c>
+      <c r="B219">
+        <v>9.4753279999999995E-2</v>
+      </c>
+      <c r="C219">
+        <v>0.25441530000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>42</v>
+      </c>
+      <c r="B220">
+        <v>0.10852745</v>
+      </c>
+      <c r="C220">
+        <v>0.29139939999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>43</v>
+      </c>
+      <c r="B221">
+        <v>7.9917009999999997E-2</v>
+      </c>
+      <c r="C221">
+        <v>0.21457950000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>38</v>
+      </c>
+      <c r="C224" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>41</v>
+      </c>
+      <c r="B225">
+        <v>9.3451300000000001E-2</v>
+      </c>
+      <c r="C225">
+        <v>0.25543729999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>42</v>
+      </c>
+      <c r="B226">
+        <v>0.10700786</v>
+      </c>
+      <c r="C226">
+        <v>0.29249239999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>43</v>
+      </c>
+      <c r="B227">
+        <v>7.8843739999999995E-2</v>
+      </c>
+      <c r="C227">
+        <v>0.21550939999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>41</v>
+      </c>
+      <c r="B231">
+        <v>0.1647515</v>
+      </c>
+      <c r="C231">
+        <v>0.40728170000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>42</v>
+      </c>
+      <c r="B232">
+        <v>0.20793300000000001</v>
+      </c>
+      <c r="C232">
+        <v>0.5140304</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>43</v>
+      </c>
+      <c r="B233">
+        <v>0.110196</v>
+      </c>
+      <c r="C233">
+        <v>0.27241510000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>41</v>
+      </c>
+      <c r="B237">
+        <v>0.16546420000000001</v>
+      </c>
+      <c r="C237">
+        <v>0.40549499999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>42</v>
+      </c>
+      <c r="B238">
+        <v>0.20913090000000001</v>
+      </c>
+      <c r="C238">
+        <v>0.51250669999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>43</v>
+      </c>
+      <c r="B239">
+        <v>0.1103814</v>
+      </c>
+      <c r="C239">
+        <v>0.27050610000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>38</v>
+      </c>
+      <c r="C242" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>41</v>
+      </c>
+      <c r="B243">
+        <v>0.17390359999999999</v>
+      </c>
+      <c r="C243">
+        <v>0.23627000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>42</v>
+      </c>
+      <c r="B244">
+        <v>0.20056470000000001</v>
+      </c>
+      <c r="C244">
+        <v>0.27249250000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>43</v>
+      </c>
+      <c r="B245">
         <v>0.1453692</v>
       </c>
-      <c r="C209">
+      <c r="C245">
         <v>0.1975025</v>
       </c>
     </row>
